--- a/Code/Results/Cases/Case_2_165/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_165/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016579837991712</v>
+        <v>1.041250443480502</v>
       </c>
       <c r="D2">
-        <v>1.034930192868209</v>
+        <v>1.049925395660076</v>
       </c>
       <c r="E2">
-        <v>1.029141720206387</v>
+        <v>1.055781791390869</v>
       </c>
       <c r="F2">
-        <v>1.038625073457062</v>
+        <v>1.062229600228201</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049751427535817</v>
+        <v>1.041695247779075</v>
       </c>
       <c r="J2">
-        <v>1.038275710229271</v>
+        <v>1.046332664107897</v>
       </c>
       <c r="K2">
-        <v>1.045923433324361</v>
+        <v>1.052681098155079</v>
       </c>
       <c r="L2">
-        <v>1.040209461625987</v>
+        <v>1.058521304632443</v>
       </c>
       <c r="M2">
-        <v>1.049571300799149</v>
+        <v>1.064951512862116</v>
       </c>
       <c r="N2">
-        <v>1.0397501808297</v>
+        <v>1.047818576506964</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020585766124372</v>
+        <v>1.042100009881367</v>
       </c>
       <c r="D3">
-        <v>1.038051550799188</v>
+        <v>1.050615647579132</v>
       </c>
       <c r="E3">
-        <v>1.033016013557366</v>
+        <v>1.056690544552168</v>
       </c>
       <c r="F3">
-        <v>1.042467658970006</v>
+        <v>1.063116080339917</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050904974632656</v>
+        <v>1.041893541597163</v>
       </c>
       <c r="J3">
-        <v>1.040530551133174</v>
+        <v>1.046828679993554</v>
       </c>
       <c r="K3">
-        <v>1.048219647771029</v>
+        <v>1.053184008889538</v>
       </c>
       <c r="L3">
-        <v>1.043243182238499</v>
+        <v>1.059243324288861</v>
       </c>
       <c r="M3">
-        <v>1.052584531025248</v>
+        <v>1.065652587972155</v>
       </c>
       <c r="N3">
-        <v>1.042008223866305</v>
+        <v>1.048315296792073</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023129234211032</v>
+        <v>1.042650266558456</v>
       </c>
       <c r="D4">
-        <v>1.040036415304933</v>
+        <v>1.051062783848431</v>
       </c>
       <c r="E4">
-        <v>1.03548496875062</v>
+        <v>1.057279939554995</v>
       </c>
       <c r="F4">
-        <v>1.044914312632403</v>
+        <v>1.063690801365103</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051629142704288</v>
+        <v>1.04202093751909</v>
       </c>
       <c r="J4">
-        <v>1.041959242152601</v>
+        <v>1.047149496247697</v>
       </c>
       <c r="K4">
-        <v>1.049674504927113</v>
+        <v>1.053509243766963</v>
       </c>
       <c r="L4">
-        <v>1.045173184540443</v>
+        <v>1.059711254413561</v>
       </c>
       <c r="M4">
-        <v>1.054499275510419</v>
+        <v>1.066106698466616</v>
       </c>
       <c r="N4">
-        <v>1.043438943790854</v>
+        <v>1.048636568642095</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024187229427767</v>
+        <v>1.042881719941534</v>
       </c>
       <c r="D5">
-        <v>1.040862739845468</v>
+        <v>1.051250877267311</v>
       </c>
       <c r="E5">
-        <v>1.036514121598686</v>
+        <v>1.057528047661681</v>
       </c>
       <c r="F5">
-        <v>1.045933664484263</v>
+        <v>1.063932677814979</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051928361709769</v>
+        <v>1.042074275420669</v>
       </c>
       <c r="J5">
-        <v>1.042552790094184</v>
+        <v>1.047284332902407</v>
       </c>
       <c r="K5">
-        <v>1.050278906362035</v>
+        <v>1.053645927684643</v>
       </c>
       <c r="L5">
-        <v>1.045976888091072</v>
+        <v>1.059908146739156</v>
       </c>
       <c r="M5">
-        <v>1.05529608927543</v>
+        <v>1.066297717044608</v>
       </c>
       <c r="N5">
-        <v>1.044033334638594</v>
+        <v>1.048771596780321</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024364220392273</v>
+        <v>1.042920589297314</v>
       </c>
       <c r="D6">
-        <v>1.04100101426554</v>
+        <v>1.051282465811483</v>
       </c>
       <c r="E6">
-        <v>1.036686413435653</v>
+        <v>1.057569725196481</v>
       </c>
       <c r="F6">
-        <v>1.046104285790581</v>
+        <v>1.063973305348419</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051978298726131</v>
+        <v>1.042083218207312</v>
       </c>
       <c r="J6">
-        <v>1.042652039970984</v>
+        <v>1.047306970512875</v>
       </c>
       <c r="K6">
-        <v>1.050379969932167</v>
+        <v>1.053668874850866</v>
       </c>
       <c r="L6">
-        <v>1.046111390370683</v>
+        <v>1.059941216016555</v>
       </c>
       <c r="M6">
-        <v>1.055429406940383</v>
+        <v>1.06632979634157</v>
       </c>
       <c r="N6">
-        <v>1.044132725461604</v>
+        <v>1.048794266538792</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0231434150408</v>
+        <v>1.04265335875873</v>
       </c>
       <c r="D7">
-        <v>1.040047488267181</v>
+        <v>1.051065296702979</v>
       </c>
       <c r="E7">
-        <v>1.035498754521147</v>
+        <v>1.057283253507147</v>
       </c>
       <c r="F7">
-        <v>1.044927969110959</v>
+        <v>1.063694032296029</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051633161261195</v>
+        <v>1.04202165108544</v>
       </c>
       <c r="J7">
-        <v>1.041967200717851</v>
+        <v>1.047151298078703</v>
       </c>
       <c r="K7">
-        <v>1.049682609096156</v>
+        <v>1.053511070321862</v>
       </c>
       <c r="L7">
-        <v>1.045183953497195</v>
+        <v>1.059713884614647</v>
       </c>
       <c r="M7">
-        <v>1.0545099542694</v>
+        <v>1.066109250433813</v>
       </c>
       <c r="N7">
-        <v>1.043446913658179</v>
+        <v>1.048638373031907</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017943955129204</v>
+        <v>1.041537447693497</v>
       </c>
       <c r="D8">
-        <v>1.035992432855957</v>
+        <v>1.050158565585105</v>
       </c>
       <c r="E8">
-        <v>1.030459099330324</v>
+        <v>1.05608862385617</v>
       </c>
       <c r="F8">
-        <v>1.039932107380876</v>
+        <v>1.062528959603739</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050145947633774</v>
+        <v>1.041762450836165</v>
       </c>
       <c r="J8">
-        <v>1.039044143900115</v>
+        <v>1.046500323112039</v>
       </c>
       <c r="K8">
-        <v>1.046705973553648</v>
+        <v>1.052851096121414</v>
       </c>
       <c r="L8">
-        <v>1.041241702974716</v>
+        <v>1.058765161446686</v>
       </c>
       <c r="M8">
-        <v>1.050597033280328</v>
+        <v>1.065188346658089</v>
       </c>
       <c r="N8">
-        <v>1.040519705764482</v>
+        <v>1.047986473606124</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008392137879077</v>
+        <v>1.039575198708455</v>
       </c>
       <c r="D9">
-        <v>1.028568893502973</v>
+        <v>1.048564671174197</v>
       </c>
       <c r="E9">
-        <v>1.021273909801637</v>
+        <v>1.053994111399813</v>
       </c>
       <c r="F9">
-        <v>1.030810329386061</v>
+        <v>1.060484526550035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047349818425883</v>
+        <v>1.041298740511436</v>
       </c>
       <c r="J9">
-        <v>1.033651989310164</v>
+        <v>1.045352208022104</v>
       </c>
       <c r="K9">
-        <v>1.041214862032603</v>
+        <v>1.051686798882094</v>
       </c>
       <c r="L9">
-        <v>1.03403101076337</v>
+        <v>1.057099086150051</v>
       </c>
       <c r="M9">
-        <v>1.043422553790798</v>
+        <v>1.063569248218407</v>
       </c>
       <c r="N9">
-        <v>1.035119893696524</v>
+        <v>1.046836728061069</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001736837399079</v>
+        <v>1.038269898168584</v>
       </c>
       <c r="D10">
-        <v>1.023416754991794</v>
+        <v>1.047504784894734</v>
       </c>
       <c r="E10">
-        <v>1.014925245916322</v>
+        <v>1.052604986483361</v>
       </c>
       <c r="F10">
-        <v>1.024494542145792</v>
+        <v>1.059127442748329</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045360329537241</v>
+        <v>1.0409849561938</v>
       </c>
       <c r="J10">
-        <v>1.029881714442296</v>
+        <v>1.044586186186273</v>
       </c>
       <c r="K10">
-        <v>1.037375703854083</v>
+        <v>1.050909775620045</v>
       </c>
       <c r="L10">
-        <v>1.029030149898198</v>
+        <v>1.055992287907366</v>
       </c>
       <c r="M10">
-        <v>1.038435188965078</v>
+        <v>1.06249239498072</v>
       </c>
       <c r="N10">
-        <v>1.031344264605887</v>
+        <v>1.046069618386367</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9987807647848711</v>
+        <v>1.037705387000796</v>
       </c>
       <c r="D11">
-        <v>1.021133788098238</v>
+        <v>1.047046506339157</v>
       </c>
       <c r="E11">
-        <v>1.01211794372828</v>
+        <v>1.052005213892084</v>
       </c>
       <c r="F11">
-        <v>1.021699207916482</v>
+        <v>1.058541225682678</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044467336901453</v>
+        <v>1.040847990939753</v>
       </c>
       <c r="J11">
-        <v>1.028204353478411</v>
+        <v>1.044254359883413</v>
       </c>
       <c r="K11">
-        <v>1.035667862002964</v>
+        <v>1.050573135996622</v>
       </c>
       <c r="L11">
-        <v>1.026814895339746</v>
+        <v>1.055513980218585</v>
       </c>
       <c r="M11">
-        <v>1.03622319146447</v>
+        <v>1.062026728522499</v>
       </c>
       <c r="N11">
-        <v>1.029664521597038</v>
+        <v>1.045737320852097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9976710331844745</v>
+        <v>1.037495807962201</v>
       </c>
       <c r="D12">
-        <v>1.020277621100155</v>
+        <v>1.046876382020684</v>
       </c>
       <c r="E12">
-        <v>1.011065989833509</v>
+        <v>1.051782692998994</v>
       </c>
       <c r="F12">
-        <v>1.020651354915186</v>
+        <v>1.058323692096461</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044130740400302</v>
+        <v>1.040796952153137</v>
       </c>
       <c r="J12">
-        <v>1.027574287175465</v>
+        <v>1.044131085893431</v>
       </c>
       <c r="K12">
-        <v>1.035026379062562</v>
+        <v>1.050448066751887</v>
       </c>
       <c r="L12">
-        <v>1.025984210041393</v>
+        <v>1.055336458668757</v>
       </c>
       <c r="M12">
-        <v>1.035393321466463</v>
+        <v>1.061853853661884</v>
       </c>
       <c r="N12">
-        <v>1.029033560527672</v>
+        <v>1.045613871798909</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9979096137706548</v>
+        <v>1.037540758577333</v>
       </c>
       <c r="D13">
-        <v>1.020461647457192</v>
+        <v>1.046912869678346</v>
       </c>
       <c r="E13">
-        <v>1.011292061034061</v>
+        <v>1.051830412630427</v>
       </c>
       <c r="F13">
-        <v>1.020876562117128</v>
+        <v>1.058370344097062</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04420316590679</v>
+        <v>1.040807907547563</v>
       </c>
       <c r="J13">
-        <v>1.027709761011739</v>
+        <v>1.044157529420343</v>
       </c>
       <c r="K13">
-        <v>1.035164306028934</v>
+        <v>1.050474895699354</v>
       </c>
       <c r="L13">
-        <v>1.026162755562744</v>
+        <v>1.055374531138439</v>
       </c>
       <c r="M13">
-        <v>1.035571710055796</v>
+        <v>1.061890931610081</v>
       </c>
       <c r="N13">
-        <v>1.029169226752333</v>
+        <v>1.045640352878663</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9986892763255306</v>
+        <v>1.037688060970379</v>
       </c>
       <c r="D14">
-        <v>1.021063185860924</v>
+        <v>1.047032441744959</v>
       </c>
       <c r="E14">
-        <v>1.012031179136507</v>
+        <v>1.05198681490378</v>
       </c>
       <c r="F14">
-        <v>1.021612789357882</v>
+        <v>1.058523239922032</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044439614645475</v>
+        <v>1.040843775395261</v>
       </c>
       <c r="J14">
-        <v>1.028152416928794</v>
+        <v>1.044244170396244</v>
       </c>
       <c r="K14">
-        <v>1.035614983659843</v>
+        <v>1.050562798263065</v>
       </c>
       <c r="L14">
-        <v>1.026746392697543</v>
+        <v>1.055499303301468</v>
       </c>
       <c r="M14">
-        <v>1.036154764299049</v>
+        <v>1.062012436698073</v>
       </c>
       <c r="N14">
-        <v>1.029612511291563</v>
+        <v>1.045727116894688</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9991680826987253</v>
+        <v>1.037778832866623</v>
       </c>
       <c r="D15">
-        <v>1.02143271990038</v>
+        <v>1.047106127441845</v>
       </c>
       <c r="E15">
-        <v>1.012485341939499</v>
+        <v>1.052083214191601</v>
       </c>
       <c r="F15">
-        <v>1.022065125229572</v>
+        <v>1.058617472435713</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044584644300786</v>
+        <v>1.040865853075487</v>
       </c>
       <c r="J15">
-        <v>1.028424212755428</v>
+        <v>1.044297550288212</v>
       </c>
       <c r="K15">
-        <v>1.035891709497039</v>
+        <v>1.050616954486388</v>
       </c>
       <c r="L15">
-        <v>1.027104940902297</v>
+        <v>1.05557619857265</v>
       </c>
       <c r="M15">
-        <v>1.036512900903451</v>
+        <v>1.062087312547209</v>
       </c>
       <c r="N15">
-        <v>1.029884693099447</v>
+        <v>1.045780572592224</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001931410588944</v>
+        <v>1.038307377634712</v>
       </c>
       <c r="D16">
-        <v>1.023567141752711</v>
+        <v>1.047535213367245</v>
       </c>
       <c r="E16">
-        <v>1.015110292288464</v>
+        <v>1.052644827967601</v>
       </c>
       <c r="F16">
-        <v>1.024678746146082</v>
+        <v>1.059166377889392</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045418916582227</v>
+        <v>1.040994023121024</v>
       </c>
       <c r="J16">
-        <v>1.029992067141089</v>
+        <v>1.044608205686496</v>
       </c>
       <c r="K16">
-        <v>1.037488065986463</v>
+        <v>1.050932113525952</v>
       </c>
       <c r="L16">
-        <v>1.029176089216481</v>
+        <v>1.056024051615459</v>
       </c>
       <c r="M16">
-        <v>1.038580857131931</v>
+        <v>1.062523312883404</v>
       </c>
       <c r="N16">
-        <v>1.031454774018171</v>
+        <v>1.046091669156807</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003644504577283</v>
+        <v>1.038639106278784</v>
       </c>
       <c r="D17">
-        <v>1.02489182998044</v>
+        <v>1.047804545321622</v>
       </c>
       <c r="E17">
-        <v>1.016740946237302</v>
+        <v>1.052997577259532</v>
       </c>
       <c r="F17">
-        <v>1.026301683703152</v>
+        <v>1.059511070339617</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045933680425958</v>
+        <v>1.041074128217145</v>
       </c>
       <c r="J17">
-        <v>1.030963346703018</v>
+        <v>1.044803036618851</v>
       </c>
       <c r="K17">
-        <v>1.0384770514776</v>
+        <v>1.05112975624481</v>
       </c>
       <c r="L17">
-        <v>1.030461677809228</v>
+        <v>1.056305231597767</v>
       </c>
       <c r="M17">
-        <v>1.039863746859736</v>
+        <v>1.062796970940003</v>
       </c>
       <c r="N17">
-        <v>1.032427432908485</v>
+        <v>1.046286776771433</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004636595225072</v>
+        <v>1.038832664708104</v>
       </c>
       <c r="D18">
-        <v>1.025659500195898</v>
+        <v>1.047961705582581</v>
       </c>
       <c r="E18">
-        <v>1.017686486067645</v>
+        <v>1.053203496527863</v>
       </c>
       <c r="F18">
-        <v>1.027242504158458</v>
+        <v>1.05971225945695</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046230902655947</v>
+        <v>1.041120746509918</v>
       </c>
       <c r="J18">
-        <v>1.031525574750738</v>
+        <v>1.044916665217507</v>
       </c>
       <c r="K18">
-        <v>1.039049543734586</v>
+        <v>1.051245020116767</v>
       </c>
       <c r="L18">
-        <v>1.031206755017182</v>
+        <v>1.05646933003328</v>
       </c>
       <c r="M18">
-        <v>1.040607000699184</v>
+        <v>1.062956650589233</v>
       </c>
       <c r="N18">
-        <v>1.032990459384522</v>
+        <v>1.046400566735732</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004973679728374</v>
+        <v>1.038898674402667</v>
       </c>
       <c r="D19">
-        <v>1.025920418460946</v>
+        <v>1.048015303887091</v>
       </c>
       <c r="E19">
-        <v>1.018007954976069</v>
+        <v>1.05327373787641</v>
       </c>
       <c r="F19">
-        <v>1.027562326924158</v>
+        <v>1.059780882732713</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046331738441086</v>
+        <v>1.041136624202313</v>
       </c>
       <c r="J19">
-        <v>1.03171655860485</v>
+        <v>1.04495540739454</v>
       </c>
       <c r="K19">
-        <v>1.039244016569937</v>
+        <v>1.051284319064026</v>
       </c>
       <c r="L19">
-        <v>1.031460005846796</v>
+        <v>1.05652529873297</v>
       </c>
       <c r="M19">
-        <v>1.040859587714442</v>
+        <v>1.063011107274637</v>
       </c>
       <c r="N19">
-        <v>1.033181714457612</v>
+        <v>1.046439363931101</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003461446994923</v>
+        <v>1.038603508022413</v>
       </c>
       <c r="D20">
-        <v>1.024750222906971</v>
+        <v>1.047775641972611</v>
       </c>
       <c r="E20">
-        <v>1.01656657411098</v>
+        <v>1.052959713356407</v>
       </c>
       <c r="F20">
-        <v>1.02612816210301</v>
+        <v>1.059474074037845</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04587876576906</v>
+        <v>1.041065544622061</v>
       </c>
       <c r="J20">
-        <v>1.030859584692647</v>
+        <v>1.044782134438595</v>
       </c>
       <c r="K20">
-        <v>1.038371396317696</v>
+        <v>1.051108552881759</v>
       </c>
       <c r="L20">
-        <v>1.03032424371973</v>
+        <v>1.05627505423269</v>
       </c>
       <c r="M20">
-        <v>1.039726628146203</v>
+        <v>1.062767603851381</v>
       </c>
       <c r="N20">
-        <v>1.032323523544157</v>
+        <v>1.046265844907683</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9984600131411274</v>
+        <v>1.037644681161511</v>
       </c>
       <c r="D21">
-        <v>1.020886276283974</v>
+        <v>1.046997227956937</v>
       </c>
       <c r="E21">
-        <v>1.011813784815332</v>
+        <v>1.051940751103515</v>
       </c>
       <c r="F21">
-        <v>1.021396255867133</v>
+        <v>1.058478210003213</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044370122980802</v>
+        <v>1.040833217724314</v>
       </c>
       <c r="J21">
-        <v>1.028022261974398</v>
+        <v>1.044218657301337</v>
       </c>
       <c r="K21">
-        <v>1.035482469093518</v>
+        <v>1.05053691386486</v>
       </c>
       <c r="L21">
-        <v>1.026574745491178</v>
+        <v>1.055462557043551</v>
       </c>
       <c r="M21">
-        <v>1.035983299680062</v>
+        <v>1.061976653859986</v>
       </c>
       <c r="N21">
-        <v>1.029482171502203</v>
+        <v>1.045701567568259</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9952473360513838</v>
+        <v>1.037042440044725</v>
       </c>
       <c r="D22">
-        <v>1.018409393461541</v>
+        <v>1.046508391875332</v>
       </c>
       <c r="E22">
-        <v>1.008772070671447</v>
+        <v>1.051301602083414</v>
       </c>
       <c r="F22">
-        <v>1.018365676137841</v>
+        <v>1.057853307099091</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043393146120334</v>
+        <v>1.040686197253236</v>
       </c>
       <c r="J22">
-        <v>1.026197554901076</v>
+        <v>1.043864267940023</v>
       </c>
       <c r="K22">
-        <v>1.033624770513462</v>
+        <v>1.050177350188025</v>
       </c>
       <c r="L22">
-        <v>1.024171731331425</v>
+        <v>1.054952537202118</v>
       </c>
       <c r="M22">
-        <v>1.033581878855555</v>
+        <v>1.061479899112809</v>
       </c>
       <c r="N22">
-        <v>1.02765487313554</v>
+        <v>1.045346674933403</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9969570840954677</v>
+        <v>1.037361641003946</v>
       </c>
       <c r="D23">
-        <v>1.019727057626107</v>
+        <v>1.046767477233619</v>
       </c>
       <c r="E23">
-        <v>1.010389760605158</v>
+        <v>1.051640283059723</v>
       </c>
       <c r="F23">
-        <v>1.019977654051453</v>
+        <v>1.058184462152987</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04391381192286</v>
+        <v>1.040764225163403</v>
       </c>
       <c r="J23">
-        <v>1.027168831919679</v>
+        <v>1.044052146377668</v>
       </c>
       <c r="K23">
-        <v>1.034613587378305</v>
+        <v>1.050367975640147</v>
       </c>
       <c r="L23">
-        <v>1.025450055720811</v>
+        <v>1.055222829248992</v>
       </c>
       <c r="M23">
-        <v>1.034859577357489</v>
+        <v>1.061743185850449</v>
       </c>
       <c r="N23">
-        <v>1.028627529478916</v>
+        <v>1.045534820179979</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003544184824655</v>
+        <v>1.038619593136161</v>
       </c>
       <c r="D24">
-        <v>1.024814224468433</v>
+        <v>1.047788701955943</v>
       </c>
       <c r="E24">
-        <v>1.01664538262185</v>
+        <v>1.052976821909931</v>
       </c>
       <c r="F24">
-        <v>1.026206586972739</v>
+        <v>1.059490790654622</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045903588693133</v>
+        <v>1.041069423505734</v>
       </c>
       <c r="J24">
-        <v>1.030906483555252</v>
+        <v>1.044791579274398</v>
       </c>
       <c r="K24">
-        <v>1.03841915080918</v>
+        <v>1.051118133823928</v>
       </c>
       <c r="L24">
-        <v>1.030386359030505</v>
+        <v>1.056288689804289</v>
       </c>
       <c r="M24">
-        <v>1.039788601721697</v>
+        <v>1.062780873390871</v>
       </c>
       <c r="N24">
-        <v>1.032370489008527</v>
+        <v>1.046275303156238</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010910219796444</v>
+        <v>1.040081988612102</v>
       </c>
       <c r="D25">
-        <v>1.03052261518523</v>
+        <v>1.048976260762944</v>
       </c>
       <c r="E25">
-        <v>1.0236866356906</v>
+        <v>1.054534328768894</v>
       </c>
       <c r="F25">
-        <v>1.033208306357836</v>
+        <v>1.061012034434144</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048094217320564</v>
+        <v>1.041419442214684</v>
       </c>
       <c r="J25">
-        <v>1.035075908682053</v>
+        <v>1.045649136252511</v>
       </c>
       <c r="K25">
-        <v>1.042664888879622</v>
+        <v>1.051987948533672</v>
       </c>
       <c r="L25">
-        <v>1.035928047256464</v>
+        <v>1.057529122379199</v>
       </c>
       <c r="M25">
-        <v>1.045312085487402</v>
+        <v>1.063987381909924</v>
       </c>
       <c r="N25">
-        <v>1.036545835197248</v>
+        <v>1.047134077963622</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_165/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_165/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041250443480502</v>
+        <v>1.016579837991712</v>
       </c>
       <c r="D2">
-        <v>1.049925395660076</v>
+        <v>1.034930192868209</v>
       </c>
       <c r="E2">
-        <v>1.055781791390869</v>
+        <v>1.029141720206388</v>
       </c>
       <c r="F2">
-        <v>1.062229600228201</v>
+        <v>1.038625073457062</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041695247779075</v>
+        <v>1.049751427535817</v>
       </c>
       <c r="J2">
-        <v>1.046332664107897</v>
+        <v>1.038275710229271</v>
       </c>
       <c r="K2">
-        <v>1.052681098155079</v>
+        <v>1.045923433324361</v>
       </c>
       <c r="L2">
-        <v>1.058521304632443</v>
+        <v>1.040209461625987</v>
       </c>
       <c r="M2">
-        <v>1.064951512862116</v>
+        <v>1.049571300799149</v>
       </c>
       <c r="N2">
-        <v>1.047818576506964</v>
+        <v>1.0397501808297</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042100009881367</v>
+        <v>1.020585766124372</v>
       </c>
       <c r="D3">
-        <v>1.050615647579132</v>
+        <v>1.038051550799188</v>
       </c>
       <c r="E3">
-        <v>1.056690544552168</v>
+        <v>1.033016013557366</v>
       </c>
       <c r="F3">
-        <v>1.063116080339917</v>
+        <v>1.042467658970005</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041893541597163</v>
+        <v>1.050904974632655</v>
       </c>
       <c r="J3">
-        <v>1.046828679993554</v>
+        <v>1.040530551133174</v>
       </c>
       <c r="K3">
-        <v>1.053184008889538</v>
+        <v>1.048219647771028</v>
       </c>
       <c r="L3">
-        <v>1.059243324288861</v>
+        <v>1.043243182238498</v>
       </c>
       <c r="M3">
-        <v>1.065652587972155</v>
+        <v>1.052584531025248</v>
       </c>
       <c r="N3">
-        <v>1.048315296792073</v>
+        <v>1.042008223866305</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042650266558456</v>
+        <v>1.023129234211033</v>
       </c>
       <c r="D4">
-        <v>1.051062783848431</v>
+        <v>1.040036415304934</v>
       </c>
       <c r="E4">
-        <v>1.057279939554995</v>
+        <v>1.035484968750621</v>
       </c>
       <c r="F4">
-        <v>1.063690801365103</v>
+        <v>1.044914312632405</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04202093751909</v>
+        <v>1.051629142704288</v>
       </c>
       <c r="J4">
-        <v>1.047149496247697</v>
+        <v>1.041959242152602</v>
       </c>
       <c r="K4">
-        <v>1.053509243766963</v>
+        <v>1.049674504927113</v>
       </c>
       <c r="L4">
-        <v>1.059711254413561</v>
+        <v>1.045173184540444</v>
       </c>
       <c r="M4">
-        <v>1.066106698466616</v>
+        <v>1.054499275510421</v>
       </c>
       <c r="N4">
-        <v>1.048636568642095</v>
+        <v>1.043438943790854</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042881719941534</v>
+        <v>1.024187229427767</v>
       </c>
       <c r="D5">
-        <v>1.051250877267311</v>
+        <v>1.040862739845467</v>
       </c>
       <c r="E5">
-        <v>1.057528047661681</v>
+        <v>1.036514121598685</v>
       </c>
       <c r="F5">
-        <v>1.063932677814979</v>
+        <v>1.045933664484262</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042074275420669</v>
+        <v>1.051928361709769</v>
       </c>
       <c r="J5">
-        <v>1.047284332902407</v>
+        <v>1.042552790094183</v>
       </c>
       <c r="K5">
-        <v>1.053645927684643</v>
+        <v>1.050278906362034</v>
       </c>
       <c r="L5">
-        <v>1.059908146739156</v>
+        <v>1.045976888091071</v>
       </c>
       <c r="M5">
-        <v>1.066297717044608</v>
+        <v>1.055296089275429</v>
       </c>
       <c r="N5">
-        <v>1.048771596780321</v>
+        <v>1.044033334638593</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042920589297314</v>
+        <v>1.024364220392272</v>
       </c>
       <c r="D6">
-        <v>1.051282465811483</v>
+        <v>1.04100101426554</v>
       </c>
       <c r="E6">
-        <v>1.057569725196481</v>
+        <v>1.036686413435653</v>
       </c>
       <c r="F6">
-        <v>1.063973305348419</v>
+        <v>1.046104285790581</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042083218207312</v>
+        <v>1.051978298726131</v>
       </c>
       <c r="J6">
-        <v>1.047306970512875</v>
+        <v>1.042652039970984</v>
       </c>
       <c r="K6">
-        <v>1.053668874850866</v>
+        <v>1.050379969932167</v>
       </c>
       <c r="L6">
-        <v>1.059941216016555</v>
+        <v>1.046111390370683</v>
       </c>
       <c r="M6">
-        <v>1.06632979634157</v>
+        <v>1.055429406940383</v>
       </c>
       <c r="N6">
-        <v>1.048794266538792</v>
+        <v>1.044132725461603</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04265335875873</v>
+        <v>1.0231434150408</v>
       </c>
       <c r="D7">
-        <v>1.051065296702979</v>
+        <v>1.040047488267181</v>
       </c>
       <c r="E7">
-        <v>1.057283253507147</v>
+        <v>1.035498754521146</v>
       </c>
       <c r="F7">
-        <v>1.063694032296029</v>
+        <v>1.044927969110959</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04202165108544</v>
+        <v>1.051633161261195</v>
       </c>
       <c r="J7">
-        <v>1.047151298078703</v>
+        <v>1.041967200717851</v>
       </c>
       <c r="K7">
-        <v>1.053511070321862</v>
+        <v>1.049682609096156</v>
       </c>
       <c r="L7">
-        <v>1.059713884614647</v>
+        <v>1.045183953497195</v>
       </c>
       <c r="M7">
-        <v>1.066109250433813</v>
+        <v>1.0545099542694</v>
       </c>
       <c r="N7">
-        <v>1.048638373031907</v>
+        <v>1.043446913658179</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041537447693497</v>
+        <v>1.017943955129203</v>
       </c>
       <c r="D8">
-        <v>1.050158565585105</v>
+        <v>1.035992432855956</v>
       </c>
       <c r="E8">
-        <v>1.05608862385617</v>
+        <v>1.030459099330323</v>
       </c>
       <c r="F8">
-        <v>1.062528959603739</v>
+        <v>1.039932107380875</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041762450836165</v>
+        <v>1.050145947633774</v>
       </c>
       <c r="J8">
-        <v>1.046500323112039</v>
+        <v>1.039044143900114</v>
       </c>
       <c r="K8">
-        <v>1.052851096121414</v>
+        <v>1.046705973553648</v>
       </c>
       <c r="L8">
-        <v>1.058765161446686</v>
+        <v>1.041241702974715</v>
       </c>
       <c r="M8">
-        <v>1.065188346658089</v>
+        <v>1.050597033280328</v>
       </c>
       <c r="N8">
-        <v>1.047986473606124</v>
+        <v>1.040519705764481</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039575198708455</v>
+        <v>1.008392137879077</v>
       </c>
       <c r="D9">
-        <v>1.048564671174197</v>
+        <v>1.028568893502973</v>
       </c>
       <c r="E9">
-        <v>1.053994111399813</v>
+        <v>1.021273909801637</v>
       </c>
       <c r="F9">
-        <v>1.060484526550035</v>
+        <v>1.030810329386062</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041298740511436</v>
+        <v>1.047349818425883</v>
       </c>
       <c r="J9">
-        <v>1.045352208022104</v>
+        <v>1.033651989310164</v>
       </c>
       <c r="K9">
-        <v>1.051686798882094</v>
+        <v>1.041214862032604</v>
       </c>
       <c r="L9">
-        <v>1.057099086150051</v>
+        <v>1.03403101076337</v>
       </c>
       <c r="M9">
-        <v>1.063569248218407</v>
+        <v>1.043422553790798</v>
       </c>
       <c r="N9">
-        <v>1.046836728061069</v>
+        <v>1.035119893696525</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038269898168584</v>
+        <v>1.001736837399079</v>
       </c>
       <c r="D10">
-        <v>1.047504784894734</v>
+        <v>1.023416754991794</v>
       </c>
       <c r="E10">
-        <v>1.052604986483361</v>
+        <v>1.014925245916321</v>
       </c>
       <c r="F10">
-        <v>1.059127442748329</v>
+        <v>1.024494542145791</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0409849561938</v>
+        <v>1.045360329537241</v>
       </c>
       <c r="J10">
-        <v>1.044586186186273</v>
+        <v>1.029881714442295</v>
       </c>
       <c r="K10">
-        <v>1.050909775620045</v>
+        <v>1.037375703854082</v>
       </c>
       <c r="L10">
-        <v>1.055992287907366</v>
+        <v>1.029030149898197</v>
       </c>
       <c r="M10">
-        <v>1.06249239498072</v>
+        <v>1.038435188965077</v>
       </c>
       <c r="N10">
-        <v>1.046069618386367</v>
+        <v>1.031344264605887</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037705387000796</v>
+        <v>0.9987807647848709</v>
       </c>
       <c r="D11">
-        <v>1.047046506339157</v>
+        <v>1.021133788098238</v>
       </c>
       <c r="E11">
-        <v>1.052005213892084</v>
+        <v>1.01211794372828</v>
       </c>
       <c r="F11">
-        <v>1.058541225682678</v>
+        <v>1.021699207916481</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040847990939753</v>
+        <v>1.044467336901453</v>
       </c>
       <c r="J11">
-        <v>1.044254359883413</v>
+        <v>1.028204353478411</v>
       </c>
       <c r="K11">
-        <v>1.050573135996622</v>
+        <v>1.035667862002964</v>
       </c>
       <c r="L11">
-        <v>1.055513980218585</v>
+        <v>1.026814895339746</v>
       </c>
       <c r="M11">
-        <v>1.062026728522499</v>
+        <v>1.03622319146447</v>
       </c>
       <c r="N11">
-        <v>1.045737320852097</v>
+        <v>1.029664521597038</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037495807962201</v>
+        <v>0.9976710331844739</v>
       </c>
       <c r="D12">
-        <v>1.046876382020684</v>
+        <v>1.020277621100155</v>
       </c>
       <c r="E12">
-        <v>1.051782692998994</v>
+        <v>1.011065989833509</v>
       </c>
       <c r="F12">
-        <v>1.058323692096461</v>
+        <v>1.020651354915186</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040796952153137</v>
+        <v>1.044130740400302</v>
       </c>
       <c r="J12">
-        <v>1.044131085893431</v>
+        <v>1.027574287175464</v>
       </c>
       <c r="K12">
-        <v>1.050448066751887</v>
+        <v>1.035026379062561</v>
       </c>
       <c r="L12">
-        <v>1.055336458668757</v>
+        <v>1.025984210041393</v>
       </c>
       <c r="M12">
-        <v>1.061853853661884</v>
+        <v>1.035393321466463</v>
       </c>
       <c r="N12">
-        <v>1.045613871798909</v>
+        <v>1.029033560527672</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037540758577333</v>
+        <v>0.9979096137706547</v>
       </c>
       <c r="D13">
-        <v>1.046912869678346</v>
+        <v>1.020461647457192</v>
       </c>
       <c r="E13">
-        <v>1.051830412630427</v>
+        <v>1.011292061034062</v>
       </c>
       <c r="F13">
-        <v>1.058370344097062</v>
+        <v>1.020876562117128</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040807907547563</v>
+        <v>1.04420316590679</v>
       </c>
       <c r="J13">
-        <v>1.044157529420343</v>
+        <v>1.027709761011739</v>
       </c>
       <c r="K13">
-        <v>1.050474895699354</v>
+        <v>1.035164306028934</v>
       </c>
       <c r="L13">
-        <v>1.055374531138439</v>
+        <v>1.026162755562744</v>
       </c>
       <c r="M13">
-        <v>1.061890931610081</v>
+        <v>1.035571710055796</v>
       </c>
       <c r="N13">
-        <v>1.045640352878663</v>
+        <v>1.029169226752333</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037688060970379</v>
+        <v>0.9986892763255302</v>
       </c>
       <c r="D14">
-        <v>1.047032441744959</v>
+        <v>1.021063185860923</v>
       </c>
       <c r="E14">
-        <v>1.05198681490378</v>
+        <v>1.012031179136506</v>
       </c>
       <c r="F14">
-        <v>1.058523239922032</v>
+        <v>1.021612789357881</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040843775395261</v>
+        <v>1.044439614645475</v>
       </c>
       <c r="J14">
-        <v>1.044244170396244</v>
+        <v>1.028152416928793</v>
       </c>
       <c r="K14">
-        <v>1.050562798263065</v>
+        <v>1.035614983659842</v>
       </c>
       <c r="L14">
-        <v>1.055499303301468</v>
+        <v>1.026746392697542</v>
       </c>
       <c r="M14">
-        <v>1.062012436698073</v>
+        <v>1.036154764299048</v>
       </c>
       <c r="N14">
-        <v>1.045727116894688</v>
+        <v>1.029612511291563</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037778832866623</v>
+        <v>0.9991680826987248</v>
       </c>
       <c r="D15">
-        <v>1.047106127441845</v>
+        <v>1.021432719900379</v>
       </c>
       <c r="E15">
-        <v>1.052083214191601</v>
+        <v>1.012485341939498</v>
       </c>
       <c r="F15">
-        <v>1.058617472435713</v>
+        <v>1.022065125229572</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040865853075487</v>
+        <v>1.044584644300785</v>
       </c>
       <c r="J15">
-        <v>1.044297550288212</v>
+        <v>1.028424212755428</v>
       </c>
       <c r="K15">
-        <v>1.050616954486388</v>
+        <v>1.035891709497038</v>
       </c>
       <c r="L15">
-        <v>1.05557619857265</v>
+        <v>1.027104940902296</v>
       </c>
       <c r="M15">
-        <v>1.062087312547209</v>
+        <v>1.03651290090345</v>
       </c>
       <c r="N15">
-        <v>1.045780572592224</v>
+        <v>1.029884693099446</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038307377634712</v>
+        <v>1.001931410588943</v>
       </c>
       <c r="D16">
-        <v>1.047535213367245</v>
+        <v>1.023567141752711</v>
       </c>
       <c r="E16">
-        <v>1.052644827967601</v>
+        <v>1.015110292288464</v>
       </c>
       <c r="F16">
-        <v>1.059166377889392</v>
+        <v>1.024678746146083</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040994023121024</v>
+        <v>1.045418916582227</v>
       </c>
       <c r="J16">
-        <v>1.044608205686496</v>
+        <v>1.029992067141089</v>
       </c>
       <c r="K16">
-        <v>1.050932113525952</v>
+        <v>1.037488065986463</v>
       </c>
       <c r="L16">
-        <v>1.056024051615459</v>
+        <v>1.029176089216481</v>
       </c>
       <c r="M16">
-        <v>1.062523312883404</v>
+        <v>1.038580857131931</v>
       </c>
       <c r="N16">
-        <v>1.046091669156807</v>
+        <v>1.03145477401817</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038639106278784</v>
+        <v>1.003644504577283</v>
       </c>
       <c r="D17">
-        <v>1.047804545321622</v>
+        <v>1.02489182998044</v>
       </c>
       <c r="E17">
-        <v>1.052997577259532</v>
+        <v>1.016740946237303</v>
       </c>
       <c r="F17">
-        <v>1.059511070339617</v>
+        <v>1.026301683703152</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041074128217145</v>
+        <v>1.045933680425958</v>
       </c>
       <c r="J17">
-        <v>1.044803036618851</v>
+        <v>1.030963346703018</v>
       </c>
       <c r="K17">
-        <v>1.05112975624481</v>
+        <v>1.0384770514776</v>
       </c>
       <c r="L17">
-        <v>1.056305231597767</v>
+        <v>1.030461677809228</v>
       </c>
       <c r="M17">
-        <v>1.062796970940003</v>
+        <v>1.039863746859736</v>
       </c>
       <c r="N17">
-        <v>1.046286776771433</v>
+        <v>1.032427432908485</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038832664708104</v>
+        <v>1.004636595225072</v>
       </c>
       <c r="D18">
-        <v>1.047961705582581</v>
+        <v>1.025659500195899</v>
       </c>
       <c r="E18">
-        <v>1.053203496527863</v>
+        <v>1.017686486067645</v>
       </c>
       <c r="F18">
-        <v>1.05971225945695</v>
+        <v>1.027242504158458</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041120746509918</v>
+        <v>1.046230902655947</v>
       </c>
       <c r="J18">
-        <v>1.044916665217507</v>
+        <v>1.031525574750739</v>
       </c>
       <c r="K18">
-        <v>1.051245020116767</v>
+        <v>1.039049543734587</v>
       </c>
       <c r="L18">
-        <v>1.05646933003328</v>
+        <v>1.031206755017182</v>
       </c>
       <c r="M18">
-        <v>1.062956650589233</v>
+        <v>1.040607000699184</v>
       </c>
       <c r="N18">
-        <v>1.046400566735732</v>
+        <v>1.032990459384522</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038898674402667</v>
+        <v>1.004973679728374</v>
       </c>
       <c r="D19">
-        <v>1.048015303887091</v>
+        <v>1.025920418460946</v>
       </c>
       <c r="E19">
-        <v>1.05327373787641</v>
+        <v>1.018007954976069</v>
       </c>
       <c r="F19">
-        <v>1.059780882732713</v>
+        <v>1.027562326924158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041136624202313</v>
+        <v>1.046331738441086</v>
       </c>
       <c r="J19">
-        <v>1.04495540739454</v>
+        <v>1.03171655860485</v>
       </c>
       <c r="K19">
-        <v>1.051284319064026</v>
+        <v>1.039244016569937</v>
       </c>
       <c r="L19">
-        <v>1.05652529873297</v>
+        <v>1.031460005846796</v>
       </c>
       <c r="M19">
-        <v>1.063011107274637</v>
+        <v>1.040859587714442</v>
       </c>
       <c r="N19">
-        <v>1.046439363931101</v>
+        <v>1.033181714457612</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038603508022413</v>
+        <v>1.003461446994922</v>
       </c>
       <c r="D20">
-        <v>1.047775641972611</v>
+        <v>1.024750222906971</v>
       </c>
       <c r="E20">
-        <v>1.052959713356407</v>
+        <v>1.01656657411098</v>
       </c>
       <c r="F20">
-        <v>1.059474074037845</v>
+        <v>1.026128162103009</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041065544622061</v>
+        <v>1.04587876576906</v>
       </c>
       <c r="J20">
-        <v>1.044782134438595</v>
+        <v>1.030859584692646</v>
       </c>
       <c r="K20">
-        <v>1.051108552881759</v>
+        <v>1.038371396317695</v>
       </c>
       <c r="L20">
-        <v>1.05627505423269</v>
+        <v>1.030324243719729</v>
       </c>
       <c r="M20">
-        <v>1.062767603851381</v>
+        <v>1.039726628146202</v>
       </c>
       <c r="N20">
-        <v>1.046265844907683</v>
+        <v>1.032323523544157</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037644681161511</v>
+        <v>0.9984600131411272</v>
       </c>
       <c r="D21">
-        <v>1.046997227956937</v>
+        <v>1.020886276283974</v>
       </c>
       <c r="E21">
-        <v>1.051940751103515</v>
+        <v>1.011813784815331</v>
       </c>
       <c r="F21">
-        <v>1.058478210003213</v>
+        <v>1.021396255867132</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040833217724314</v>
+        <v>1.044370122980802</v>
       </c>
       <c r="J21">
-        <v>1.044218657301337</v>
+        <v>1.028022261974398</v>
       </c>
       <c r="K21">
-        <v>1.05053691386486</v>
+        <v>1.035482469093518</v>
       </c>
       <c r="L21">
-        <v>1.055462557043551</v>
+        <v>1.026574745491178</v>
       </c>
       <c r="M21">
-        <v>1.061976653859986</v>
+        <v>1.035983299680061</v>
       </c>
       <c r="N21">
-        <v>1.045701567568259</v>
+        <v>1.029482171502203</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037042440044725</v>
+        <v>0.9952473360513842</v>
       </c>
       <c r="D22">
-        <v>1.046508391875332</v>
+        <v>1.018409393461542</v>
       </c>
       <c r="E22">
-        <v>1.051301602083414</v>
+        <v>1.008772070671447</v>
       </c>
       <c r="F22">
-        <v>1.057853307099091</v>
+        <v>1.018365676137842</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040686197253236</v>
+        <v>1.043393146120334</v>
       </c>
       <c r="J22">
-        <v>1.043864267940023</v>
+        <v>1.026197554901076</v>
       </c>
       <c r="K22">
-        <v>1.050177350188025</v>
+        <v>1.033624770513462</v>
       </c>
       <c r="L22">
-        <v>1.054952537202118</v>
+        <v>1.024171731331425</v>
       </c>
       <c r="M22">
-        <v>1.061479899112809</v>
+        <v>1.033581878855556</v>
       </c>
       <c r="N22">
-        <v>1.045346674933403</v>
+        <v>1.02765487313554</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037361641003946</v>
+        <v>0.9969570840954678</v>
       </c>
       <c r="D23">
-        <v>1.046767477233619</v>
+        <v>1.019727057626107</v>
       </c>
       <c r="E23">
-        <v>1.051640283059723</v>
+        <v>1.010389760605158</v>
       </c>
       <c r="F23">
-        <v>1.058184462152987</v>
+        <v>1.019977654051453</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040764225163403</v>
+        <v>1.04391381192286</v>
       </c>
       <c r="J23">
-        <v>1.044052146377668</v>
+        <v>1.027168831919679</v>
       </c>
       <c r="K23">
-        <v>1.050367975640147</v>
+        <v>1.034613587378305</v>
       </c>
       <c r="L23">
-        <v>1.055222829248992</v>
+        <v>1.025450055720811</v>
       </c>
       <c r="M23">
-        <v>1.061743185850449</v>
+        <v>1.034859577357489</v>
       </c>
       <c r="N23">
-        <v>1.045534820179979</v>
+        <v>1.028627529478916</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038619593136161</v>
+        <v>1.003544184824654</v>
       </c>
       <c r="D24">
-        <v>1.047788701955943</v>
+        <v>1.024814224468432</v>
       </c>
       <c r="E24">
-        <v>1.052976821909931</v>
+        <v>1.016645382621849</v>
       </c>
       <c r="F24">
-        <v>1.059490790654622</v>
+        <v>1.026206586972739</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041069423505734</v>
+        <v>1.045903588693133</v>
       </c>
       <c r="J24">
-        <v>1.044791579274398</v>
+        <v>1.030906483555251</v>
       </c>
       <c r="K24">
-        <v>1.051118133823928</v>
+        <v>1.038419150809179</v>
       </c>
       <c r="L24">
-        <v>1.056288689804289</v>
+        <v>1.030386359030504</v>
       </c>
       <c r="M24">
-        <v>1.062780873390871</v>
+        <v>1.039788601721696</v>
       </c>
       <c r="N24">
-        <v>1.046275303156238</v>
+        <v>1.032370489008526</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040081988612102</v>
+        <v>1.010910219796443</v>
       </c>
       <c r="D25">
-        <v>1.048976260762944</v>
+        <v>1.03052261518523</v>
       </c>
       <c r="E25">
-        <v>1.054534328768894</v>
+        <v>1.0236866356906</v>
       </c>
       <c r="F25">
-        <v>1.061012034434144</v>
+        <v>1.033208306357835</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041419442214684</v>
+        <v>1.048094217320564</v>
       </c>
       <c r="J25">
-        <v>1.045649136252511</v>
+        <v>1.035075908682053</v>
       </c>
       <c r="K25">
-        <v>1.051987948533672</v>
+        <v>1.042664888879622</v>
       </c>
       <c r="L25">
-        <v>1.057529122379199</v>
+        <v>1.035928047256464</v>
       </c>
       <c r="M25">
-        <v>1.063987381909924</v>
+        <v>1.045312085487402</v>
       </c>
       <c r="N25">
-        <v>1.047134077963622</v>
+        <v>1.036545835197247</v>
       </c>
     </row>
   </sheetData>
